--- a/Planejamento/Cronograma-Geral.xlsx
+++ b/Planejamento/Cronograma-Geral.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t xml:space="preserve">CRONOGRAMA GERAL</t>
   </si>
@@ -70,7 +70,10 @@
     <t xml:space="preserve">Montagem e Testes Finais</t>
   </si>
   <si>
-    <t xml:space="preserve">Criação da última versão do projeto e</t>
+    <t xml:space="preserve">Criação da última versão do projeto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obs: cronograma possivelmente será alterado.</t>
   </si>
 </sst>
 </file>
@@ -177,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -236,6 +239,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -318,10 +325,10 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.07"/>
@@ -544,8 +551,10 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -779,7 +788,7 @@
       <c r="G45" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
@@ -788,6 +797,7 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
